--- a/outputs-HGR-r202/test-g__Caecibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Caecibacter_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>even_MAG-GUT30091.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT54583.fa</t>
   </si>
   <si>
     <t>1-s__Caecibacter hominis</t>
@@ -91,7 +94,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -107,19 +110,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -202,6 +205,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.0010787284301525689</v>
+      </c>
+      <c r="C6">
+        <v>0.12561983842656593</v>
+      </c>
+      <c r="D6">
+        <v>0.87236091274534533</v>
+      </c>
+      <c r="E6">
+        <v>0.0009405203979361321</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>